--- a/db/dummydata/gs_hubs.xlsx
+++ b/db/dummydata/gs_hubs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="47">
   <si>
     <t>STATUS</t>
   </si>
@@ -577,6 +577,9 @@
       <c r="F13" s="3">
         <v>9.9270581</v>
       </c>
+      <c r="G13" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="H13" s="2" t="s">
         <v>46</v>
       </c>

--- a/db/dummydata/gs_hubs.xlsx
+++ b/db/dummydata/gs_hubs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="51">
   <si>
     <t>STATUS</t>
   </si>
@@ -38,6 +38,18 @@
   </si>
   <si>
     <t>PHOTO</t>
+  </si>
+  <si>
+    <t>IMPORT_CHARGES</t>
+  </si>
+  <si>
+    <t>EXPORT_CHARGES</t>
+  </si>
+  <si>
+    <t>PRE_CARRIAGE</t>
+  </si>
+  <si>
+    <t>ON_CARRIAGE</t>
   </si>
   <si>
     <t>active</t>
@@ -274,19 +286,31 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E2" s="2">
         <v>53.3312536</v>
@@ -295,24 +319,24 @@
         <v>10.2161324</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E3" s="2">
         <v>51.5322973</v>
@@ -321,24 +345,24 @@
         <v>7.5024693</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E4" s="2">
         <v>50.8458964</v>
@@ -347,24 +371,24 @@
         <v>9.6766533</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E5" s="2">
         <v>48.9245535</v>
@@ -373,24 +397,24 @@
         <v>8.7237903</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E6" s="2">
         <v>52.6059767</v>
@@ -399,24 +423,24 @@
         <v>12.9744685</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E7" s="2">
         <v>51.6549192</v>
@@ -425,24 +449,24 @@
         <v>7.5955409</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E8" s="2">
         <v>51.5354482</v>
@@ -451,24 +475,24 @@
         <v>6.586883</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E9" s="2">
         <v>51.3641991</v>
@@ -477,24 +501,24 @@
         <v>12.4517724</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E10" s="2">
         <v>50.3474513</v>
@@ -503,24 +527,24 @@
         <v>7.485392</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E11" s="2">
         <v>48.1982569</v>
@@ -529,24 +553,24 @@
         <v>10.8465496</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E12" s="5">
         <v>50.8522514</v>
@@ -555,21 +579,21 @@
         <v>9.7317003</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E13" s="5">
         <v>53.5737654</v>
@@ -578,10 +602,10 @@
         <v>9.9270581</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14">
